--- a/CashFlow/PWR_cashflow.xlsx
+++ b/CashFlow/PWR_cashflow.xlsx
@@ -77,8 +77,8 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9860000.0</v>
+        <v>188000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>15357000.0</v>
+        <v>194000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5433000.0</v>
+        <v>152731000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-9472000.0</v>
+        <v>92326000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-7360000.0</v>
+        <v>40070000.0</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>115569000.0</v>
+        <v>4991000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-41166000.0</v>
+        <v>5683000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-208032000.0</v>
+        <v>4207767000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-125319000.0</v>
+        <v>3024129000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>19043000.0</v>
+        <v>1698097000.0</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
